--- a/medicine/Enfance/Charlie_the_Choo-Choo/Charlie_the_Choo-Choo.xlsx
+++ b/medicine/Enfance/Charlie_the_Choo-Choo/Charlie_the_Choo-Choo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Charlie the Choo-Choo: From the World of The Dark Tower[1] est un livre pour enfants de Stephen King[2] publié sous le pseudonyme de Beryl Evans. L'histoire a été écrite par Stephen King et a été originellement publiée dans un autre roman de King, Terres perdues, troisième tome du cycle de La Tour sombre. Dans celui-ci, le livre est trouvé par le personnage de Jake dans le chapitre 22. Le texte a été publié comme roman autonome par Simon &amp; Schuster Books for Young Readers le 11 novembre 2016[3]. L'histoire y est racontée telle qu'elle a été retranscrite dans Terres perdues[4]. 
+Charlie the Choo-Choo: From the World of The Dark Tower est un livre pour enfants de Stephen King publié sous le pseudonyme de Beryl Evans. L'histoire a été écrite par Stephen King et a été originellement publiée dans un autre roman de King, Terres perdues, troisième tome du cycle de La Tour sombre. Dans celui-ci, le livre est trouvé par le personnage de Jake dans le chapitre 22. Le texte a été publié comme roman autonome par Simon &amp; Schuster Books for Young Readers le 11 novembre 2016. L'histoire y est racontée telle qu'elle a été retranscrite dans Terres perdues. 
 Ned Dameron a signé les illustrations de la couverture et de la page intérieure. 
-Charlie the Choo-Choo n'existe pas en français ailleurs que dans la version retranscrite dans Terres perdues[2].
+Charlie the Choo-Choo n'existe pas en français ailleurs que dans la version retranscrite dans Terres perdues.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La publication du livre a été révélé pour la première fois au Comic-Con de San Diego en 2016, où une édition limitée à 150 exemplaires a été remise aux participants. L'actrice Allison Davies a participé à la signature du livre lors de l'événement, se faisant passer pour l'autrice fictive Beryl Evans[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La publication du livre a été révélé pour la première fois au Comic-Con de San Diego en 2016, où une édition limitée à 150 exemplaires a été remise aux participants. L'actrice Allison Davies a participé à la signature du livre lors de l'événement, se faisant passer pour l'autrice fictive Beryl Evans.
 </t>
         </is>
       </c>
